--- a/current-excel-manifests/Assay16SrRNAseqMetadataTemplate.xlsx
+++ b/current-excel-manifests/Assay16SrRNAseqMetadataTemplate.xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="346">
   <si>
     <t>Component</t>
   </si>
@@ -519,574 +519,586 @@
     <t>H3K36me3</t>
   </si>
   <si>
+    <t>Illumina EPIC Array</t>
+  </si>
+  <si>
+    <t>IlluminaInfiniumGSAMD-24v2-0</t>
+  </si>
+  <si>
+    <t>H3K4me1</t>
+  </si>
+  <si>
     <t>Immunocytochemistry</t>
   </si>
   <si>
-    <t>IlluminaInfiniumGSAMD-24v2-0</t>
-  </si>
-  <si>
-    <t>H3K4me1</t>
+    <t>IlluminaMethylationEPIC</t>
+  </si>
+  <si>
+    <t>H3K4me3</t>
   </si>
   <si>
     <t>immunofluorescence</t>
   </si>
   <si>
-    <t>IlluminaMethylationEPIC</t>
-  </si>
-  <si>
-    <t>H3K4me3</t>
+    <t>IlluminaMiSeq</t>
+  </si>
+  <si>
+    <t>H3K9ac</t>
   </si>
   <si>
     <t>immunohistochemistry</t>
   </si>
   <si>
-    <t>IlluminaMiSeq</t>
-  </si>
-  <si>
-    <t>H3K9ac</t>
+    <t>IlluminaNovaseq6000</t>
+  </si>
+  <si>
+    <t>H3K9me2</t>
   </si>
   <si>
     <t>in vivo bioluminescence</t>
   </si>
   <si>
-    <t>IlluminaNovaseq6000</t>
-  </si>
-  <si>
-    <t>H3K9me2</t>
+    <t>IlluminaWholeGenomeDASL</t>
+  </si>
+  <si>
+    <t>H3K9me3</t>
   </si>
   <si>
     <t>ISOSeq</t>
   </si>
   <si>
-    <t>IlluminaWholeGenomeDASL</t>
-  </si>
-  <si>
-    <t>H3K9me3</t>
+    <t>Infinium Global Diversity Array-8</t>
+  </si>
+  <si>
+    <t>HCFC1</t>
   </si>
   <si>
     <t>jumpingLibrary</t>
   </si>
   <si>
-    <t>Infinium Global Diversity Array-8</t>
-  </si>
-  <si>
-    <t>HCFC1</t>
+    <t>Infinium HumanOmniExpressExome</t>
+  </si>
+  <si>
+    <t>HNRNPK</t>
   </si>
   <si>
     <t>kinesthetic behavior</t>
   </si>
   <si>
-    <t>Infinium HumanOmniExpressExome</t>
-  </si>
-  <si>
-    <t>HNRNPK</t>
+    <t>Infinium Omni2.5Exome-8 v1.1</t>
+  </si>
+  <si>
+    <t>IE_V1-V3</t>
   </si>
   <si>
     <t>label free mass spectrometry</t>
   </si>
   <si>
-    <t>Infinium Omni2.5Exome-8 v1.1</t>
-  </si>
-  <si>
-    <t>IE_V1-V3</t>
+    <t>Infinium Omni2.5Exome-8 v1.3</t>
+  </si>
+  <si>
+    <t>IgG</t>
   </si>
   <si>
     <t>Laser Speckle Imaging</t>
   </si>
   <si>
-    <t>Infinium Omni2.5Exome-8 v1.3</t>
-  </si>
-  <si>
-    <t>IgG</t>
+    <t>Infinium Omni2.5Exome-8 v1.4</t>
+  </si>
+  <si>
+    <t>input</t>
   </si>
   <si>
     <t>LC-MS</t>
   </si>
   <si>
-    <t>Infinium Omni2.5Exome-8 v1.4</t>
-  </si>
-  <si>
-    <t>input</t>
+    <t>Infinium Omni2.5Exome-8 v1.5</t>
+  </si>
+  <si>
+    <t>KAT2B</t>
   </si>
   <si>
     <t>LC-MSMS</t>
   </si>
   <si>
-    <t>Infinium Omni2.5Exome-8 v1.5</t>
-  </si>
-  <si>
-    <t>KAT2B</t>
+    <t>InfiniumPsychArrayBeadChip</t>
+  </si>
+  <si>
+    <t>KDM4A</t>
   </si>
   <si>
     <t>LC-SRM</t>
   </si>
   <si>
-    <t>InfiniumPsychArrayBeadChip</t>
-  </si>
-  <si>
-    <t>KDM4A</t>
+    <t>Leco Pegasus IV</t>
+  </si>
+  <si>
+    <t>KLF16</t>
   </si>
   <si>
     <t>Leiden Oxylipins</t>
   </si>
   <si>
-    <t>Leco Pegasus IV</t>
-  </si>
-  <si>
-    <t>KLF16</t>
+    <t>llumina Infinium General Screening Array 24-Kit v3.0</t>
+  </si>
+  <si>
+    <t>KLF5</t>
   </si>
   <si>
     <t>lentiMPRA</t>
   </si>
   <si>
-    <t>llumina Infinium General Screening Array 24-Kit v3.0</t>
-  </si>
-  <si>
-    <t>KLF5</t>
+    <t>LTQOrbitrapXL</t>
+  </si>
+  <si>
+    <t>LaminB</t>
   </si>
   <si>
     <t>LFP</t>
   </si>
   <si>
-    <t>LTQOrbitrapXL</t>
-  </si>
-  <si>
-    <t>LaminB</t>
+    <t>MiSeq</t>
+  </si>
+  <si>
+    <t>MAZ</t>
   </si>
   <si>
     <t>liquid chromatography-electrochemical detection</t>
   </si>
   <si>
-    <t>MiSeq</t>
-  </si>
-  <si>
-    <t>MAZ</t>
+    <t>NanostringnCounter</t>
+  </si>
+  <si>
+    <t>MEF2A</t>
   </si>
   <si>
     <t>lncrnaSeq</t>
   </si>
   <si>
-    <t>NanostringnCounter</t>
-  </si>
-  <si>
-    <t>MEF2A</t>
+    <t>NanostringnCounter_MouseADPanel</t>
+  </si>
+  <si>
+    <t>MEIS2</t>
   </si>
   <si>
     <t>locomotor activation behavior</t>
   </si>
   <si>
-    <t>NanostringnCounter_MouseADPanel</t>
-  </si>
-  <si>
-    <t>MEIS2</t>
+    <t>NextSeq2000</t>
+  </si>
+  <si>
+    <t>MITF</t>
   </si>
   <si>
     <t>long-read rnaSeq</t>
   </si>
   <si>
-    <t>NextSeq2000</t>
-  </si>
-  <si>
-    <t>MITF</t>
+    <t>NextSeq500</t>
+  </si>
+  <si>
+    <t>NCOA2</t>
   </si>
   <si>
     <t>LTP</t>
   </si>
   <si>
-    <t>NextSeq500</t>
-  </si>
-  <si>
-    <t>NCOA2</t>
+    <t>Olink Target 96</t>
+  </si>
+  <si>
+    <t>NCOR1</t>
   </si>
   <si>
     <t>m6A-rnaSeq</t>
   </si>
   <si>
-    <t>Olink Target 96</t>
-  </si>
-  <si>
-    <t>NCOR1</t>
+    <t>orbitrap</t>
+  </si>
+  <si>
+    <t>NEUROD1</t>
   </si>
   <si>
     <t>MDMS-SL</t>
   </si>
   <si>
-    <t>orbitrap</t>
-  </si>
-  <si>
-    <t>NEUROD1</t>
+    <t>Orbitrap Exploris 240</t>
+  </si>
+  <si>
+    <t>NFIB</t>
   </si>
   <si>
     <t>memory behavior</t>
   </si>
   <si>
-    <t>Orbitrap Exploris 240</t>
-  </si>
-  <si>
-    <t>NFIB</t>
+    <t>OrbiTrap Fusion</t>
+  </si>
+  <si>
+    <t>NFIC</t>
   </si>
   <si>
     <t>Metabolon</t>
   </si>
   <si>
-    <t>OrbiTrap Fusion</t>
-  </si>
-  <si>
-    <t>NFIC</t>
+    <t>Orbitrap Fusion Lumos</t>
+  </si>
+  <si>
+    <t>NONO</t>
   </si>
   <si>
     <t>methylationArray</t>
   </si>
   <si>
-    <t>Orbitrap Fusion Lumos</t>
-  </si>
-  <si>
-    <t>NONO</t>
+    <t>PacBio Sequel II</t>
+  </si>
+  <si>
+    <t>NR2F1</t>
   </si>
   <si>
     <t>MIB/MS</t>
   </si>
   <si>
-    <t>PacBio Sequel II</t>
-  </si>
-  <si>
-    <t>NR2F1</t>
+    <t>PacBio Sequel IIe</t>
+  </si>
+  <si>
+    <t>NR2F2</t>
   </si>
   <si>
     <t>microRNAcounts</t>
   </si>
   <si>
-    <t>PacBio Sequel IIe</t>
-  </si>
-  <si>
-    <t>NR2F2</t>
+    <t>PacBioRSII</t>
+  </si>
+  <si>
+    <t>NR3C1</t>
   </si>
   <si>
     <t>mirnaArray</t>
   </si>
   <si>
-    <t>PacBioRSII</t>
-  </si>
-  <si>
-    <t>NR3C1</t>
+    <t>Perlegen300Karray</t>
+  </si>
+  <si>
+    <t>NRF1</t>
   </si>
   <si>
     <t>mirnaSeq</t>
   </si>
   <si>
-    <t>Perlegen300Karray</t>
-  </si>
-  <si>
-    <t>NRF1</t>
+    <t>PsychChip</t>
+  </si>
+  <si>
+    <t>OLIG2</t>
   </si>
   <si>
     <t>MRI</t>
   </si>
   <si>
-    <t>PsychChip</t>
-  </si>
-  <si>
-    <t>OLIG2</t>
+    <t>Q Exactive</t>
+  </si>
+  <si>
+    <t>PKNOX1</t>
   </si>
   <si>
     <t>mRNAcounts</t>
   </si>
   <si>
-    <t>Q Exactive</t>
-  </si>
-  <si>
-    <t>PKNOX1</t>
+    <t>Q Exactive HF</t>
+  </si>
+  <si>
+    <t>Pol2</t>
+  </si>
+  <si>
+    <t>mRNAseq</t>
+  </si>
+  <si>
+    <t>Q Exactive HF-X</t>
+  </si>
+  <si>
+    <t>R-loops</t>
   </si>
   <si>
     <t>MudPIT</t>
   </si>
   <si>
-    <t>Q Exactive HF</t>
-  </si>
-  <si>
-    <t>Pol2</t>
+    <t>Q Exactive Plus</t>
+  </si>
+  <si>
+    <t>RAD21</t>
   </si>
   <si>
     <t>nextGenerationTargetedSequencing</t>
   </si>
   <si>
-    <t>Q Exactive HF-X</t>
-  </si>
-  <si>
-    <t>R-loops</t>
+    <t>quadrupole time-of-flight</t>
+  </si>
+  <si>
+    <t>RB1</t>
   </si>
   <si>
     <t>Nightingale NMR</t>
   </si>
   <si>
-    <t>Q Exactive Plus</t>
-  </si>
-  <si>
-    <t>RAD21</t>
+    <t>Roche Cobas</t>
+  </si>
+  <si>
+    <t>RELB</t>
   </si>
   <si>
     <t>NOMe-Seq</t>
   </si>
   <si>
-    <t>quadrupole time-of-flight</t>
-  </si>
-  <si>
-    <t>RB1</t>
+    <t>SequenomMultiplex</t>
+  </si>
+  <si>
+    <t>REST</t>
   </si>
   <si>
     <t>novelty response behavior</t>
   </si>
   <si>
-    <t>Roche Cobas</t>
-  </si>
-  <si>
-    <t>RELB</t>
+    <t>Signa Premier AIR 3T</t>
+  </si>
+  <si>
+    <t>SATB2</t>
   </si>
   <si>
     <t>open field test</t>
   </si>
   <si>
-    <t>SequenomMultiplex</t>
-  </si>
-  <si>
-    <t>REST</t>
+    <t>Simoa HD-1 Analyzer</t>
+  </si>
+  <si>
+    <t>SIN3A</t>
   </si>
   <si>
     <t>oxBS-Seq</t>
   </si>
   <si>
-    <t>Signa Premier AIR 3T</t>
-  </si>
-  <si>
-    <t>SATB2</t>
+    <t>time-of-flight</t>
+  </si>
+  <si>
+    <t>SIN3B</t>
   </si>
   <si>
     <t>pharmacodynamics</t>
   </si>
   <si>
-    <t>Simoa HD-1 Analyzer</t>
-  </si>
-  <si>
-    <t>SIN3A</t>
+    <t>triple quadrupole</t>
+  </si>
+  <si>
+    <t>SIRT1</t>
   </si>
   <si>
     <t>pharmacokinetics</t>
   </si>
   <si>
-    <t>time-of-flight</t>
-  </si>
-  <si>
-    <t>SIN3B</t>
+    <t>Xevo G2 QTOF</t>
+  </si>
+  <si>
+    <t>SIX4</t>
   </si>
   <si>
     <t>photograph</t>
   </si>
   <si>
-    <t>triple quadrupole</t>
-  </si>
-  <si>
-    <t>SIRT1</t>
+    <t>Xevo TQ-S</t>
+  </si>
+  <si>
+    <t>SKIL</t>
   </si>
   <si>
     <t>polymeraseChainReaction</t>
   </si>
   <si>
-    <t>Xevo G2 QTOF</t>
-  </si>
-  <si>
-    <t>SIX4</t>
+    <t>SMARCA5</t>
   </si>
   <si>
     <t>Positron Emission Tomography</t>
   </si>
   <si>
-    <t>Xevo TQ-S</t>
-  </si>
-  <si>
-    <t>SKIL</t>
+    <t>SMC3</t>
   </si>
   <si>
     <t>proximity extension assay</t>
   </si>
   <si>
-    <t>SMARCA5</t>
+    <t>SON</t>
   </si>
   <si>
     <t>questionnaire</t>
   </si>
   <si>
-    <t>SMC3</t>
+    <t>SOX8</t>
   </si>
   <si>
     <t>Rader Lipidomics</t>
   </si>
   <si>
-    <t>SON</t>
+    <t>SP1</t>
   </si>
   <si>
     <t>Real Time PCR</t>
   </si>
   <si>
-    <t>SOX8</t>
+    <t>SP4</t>
   </si>
   <si>
     <t>Ribo-Seq</t>
   </si>
   <si>
-    <t>SP1</t>
+    <t>SREBP2</t>
   </si>
   <si>
     <t>rnaArray</t>
   </si>
   <si>
-    <t>SP4</t>
+    <t>SRF</t>
   </si>
   <si>
     <t>rnaSeq</t>
   </si>
   <si>
-    <t>SREBP2</t>
+    <t>TAF1</t>
   </si>
   <si>
     <t>rotarod performance test</t>
   </si>
   <si>
-    <t>SRF</t>
+    <t>TBR1</t>
   </si>
   <si>
     <t>RPPA</t>
   </si>
   <si>
-    <t>TAF1</t>
+    <t>TCF12</t>
+  </si>
+  <si>
+    <t>RRBS</t>
+  </si>
+  <si>
+    <t>TCF7L2</t>
   </si>
   <si>
     <t>sandwich ELISA</t>
   </si>
   <si>
-    <t>TBR1</t>
+    <t>TDP43</t>
   </si>
   <si>
     <t>Sanger sequencing</t>
   </si>
   <si>
-    <t>TCF12</t>
+    <t>TRIM28</t>
   </si>
   <si>
     <t>scale</t>
   </si>
   <si>
-    <t>TCF7L2</t>
+    <t>YBX1</t>
   </si>
   <si>
     <t>scATACSeq</t>
   </si>
   <si>
-    <t>TDP43</t>
+    <t>YBX3</t>
   </si>
   <si>
     <t>scCGIseq</t>
   </si>
   <si>
-    <t>TRIM28</t>
+    <t>YY1</t>
   </si>
   <si>
     <t>scirnaSeq</t>
   </si>
   <si>
-    <t>YBX1</t>
+    <t>ZBTB7B</t>
   </si>
   <si>
     <t>scrnaSeq</t>
   </si>
   <si>
-    <t>YBX3</t>
+    <t>ZEB1</t>
   </si>
   <si>
     <t>scwholeGenomeSeq</t>
   </si>
   <si>
-    <t>YY1</t>
+    <t>ZEB2</t>
   </si>
   <si>
     <t>SiMoA</t>
   </si>
   <si>
-    <t>ZBTB7B</t>
+    <t>ZFP91</t>
   </si>
   <si>
     <t>snATACSeq</t>
   </si>
   <si>
-    <t>ZEB1</t>
+    <t>ZHX1</t>
   </si>
   <si>
     <t>snpArray</t>
   </si>
   <si>
-    <t>ZEB2</t>
+    <t>ZKSCAN1</t>
   </si>
   <si>
     <t>snrnaSeq</t>
   </si>
   <si>
-    <t>ZFP91</t>
+    <t>ZNF143</t>
   </si>
   <si>
     <t>spontaneous alternation</t>
   </si>
   <si>
-    <t>ZHX1</t>
-  </si>
-  <si>
-    <t>ZKSCAN1</t>
+    <t>ZNF207</t>
+  </si>
+  <si>
+    <t>ZNF24</t>
   </si>
   <si>
     <t>TMT quantitation</t>
   </si>
   <si>
-    <t>ZNF143</t>
+    <t>ZNF318</t>
+  </si>
+  <si>
+    <t>TotalRNAseq</t>
+  </si>
+  <si>
+    <t>ZNF384</t>
   </si>
   <si>
     <t>tractionForceMicroscopy</t>
   </si>
   <si>
-    <t>ZNF207</t>
+    <t>ZNF407</t>
   </si>
   <si>
     <t>UC Davis GCTOF</t>
   </si>
   <si>
-    <t>ZNF24</t>
+    <t>ZNF592</t>
   </si>
   <si>
     <t>UCSD Untargeted Metabolomics</t>
   </si>
   <si>
-    <t>ZNF318</t>
+    <t>ZSCAN29</t>
   </si>
   <si>
     <t>UPLC-ESI-QTOF-MS</t>
   </si>
   <si>
-    <t>ZNF384</t>
-  </si>
-  <si>
     <t>UPLC-MSMS</t>
   </si>
   <si>
-    <t>ZNF407</t>
-  </si>
-  <si>
     <t>Vernier Caliper</t>
   </si>
   <si>
-    <t>ZNF592</t>
-  </si>
-  <si>
     <t>von Frey test</t>
-  </si>
-  <si>
-    <t>ZSCAN29</t>
   </si>
   <si>
     <t>westernBlot</t>
@@ -28466,11 +28478,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="D2:D1000">
       <formula1>Sheet2!$D$2:$D$81</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="C2:C1000">
+      <formula1>Sheet2!$C$2:$C$123</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="I2:I1000">
       <formula1>Sheet2!$I$2:$I$21</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="C2:C1000">
-      <formula1>Sheet2!$C$2:$C$119</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="L2:L1000">
       <formula1>Sheet2!$L$2:$L$112</formula1>
@@ -29653,31 +29665,31 @@
     </row>
     <row r="104">
       <c r="C104" s="7" t="s">
-        <v>84</v>
+        <v>318</v>
       </c>
       <c r="L104" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="105">
       <c r="C105" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L105" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="106">
       <c r="C106" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L106" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="107">
       <c r="C107" s="7" t="s">
-        <v>323</v>
+        <v>84</v>
       </c>
       <c r="L107" s="7" t="s">
         <v>324</v>
@@ -29756,6 +29768,26 @@
     <row r="119">
       <c r="C119" s="7" t="s">
         <v>341</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="C120" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="C121" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="C122" s="7" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="C123" s="7" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>

--- a/current-excel-manifests/Assay16SrRNAseqMetadataTemplate.xlsx
+++ b/current-excel-manifests/Assay16SrRNAseqMetadataTemplate.xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="348">
   <si>
     <t>Component</t>
   </si>
@@ -558,361 +558,367 @@
     <t>in vivo bioluminescence</t>
   </si>
   <si>
+    <t>IlluminaNovaSeqX</t>
+  </si>
+  <si>
+    <t>H3K9me3</t>
+  </si>
+  <si>
+    <t>ISOSeq</t>
+  </si>
+  <si>
+    <t>IlluminaNovaSeqXplus</t>
+  </si>
+  <si>
+    <t>HCFC1</t>
+  </si>
+  <si>
+    <t>jumpingLibrary</t>
+  </si>
+  <si>
     <t>IlluminaWholeGenomeDASL</t>
   </si>
   <si>
-    <t>H3K9me3</t>
-  </si>
-  <si>
-    <t>ISOSeq</t>
+    <t>HNRNPK</t>
+  </si>
+  <si>
+    <t>kinesthetic behavior</t>
   </si>
   <si>
     <t>Infinium Global Diversity Array-8</t>
   </si>
   <si>
-    <t>HCFC1</t>
-  </si>
-  <si>
-    <t>jumpingLibrary</t>
+    <t>IE_V1-V3</t>
+  </si>
+  <si>
+    <t>label free mass spectrometry</t>
   </si>
   <si>
     <t>Infinium HumanOmniExpressExome</t>
   </si>
   <si>
-    <t>HNRNPK</t>
-  </si>
-  <si>
-    <t>kinesthetic behavior</t>
+    <t>IgG</t>
+  </si>
+  <si>
+    <t>Laser Speckle Imaging</t>
   </si>
   <si>
     <t>Infinium Omni2.5Exome-8 v1.1</t>
   </si>
   <si>
-    <t>IE_V1-V3</t>
-  </si>
-  <si>
-    <t>label free mass spectrometry</t>
+    <t>input</t>
+  </si>
+  <si>
+    <t>LC-MS</t>
   </si>
   <si>
     <t>Infinium Omni2.5Exome-8 v1.3</t>
   </si>
   <si>
-    <t>IgG</t>
-  </si>
-  <si>
-    <t>Laser Speckle Imaging</t>
+    <t>KAT2B</t>
+  </si>
+  <si>
+    <t>LC-MSMS</t>
   </si>
   <si>
     <t>Infinium Omni2.5Exome-8 v1.4</t>
   </si>
   <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>LC-MS</t>
+    <t>KDM4A</t>
+  </si>
+  <si>
+    <t>LC-SRM</t>
   </si>
   <si>
     <t>Infinium Omni2.5Exome-8 v1.5</t>
   </si>
   <si>
-    <t>KAT2B</t>
-  </si>
-  <si>
-    <t>LC-MSMS</t>
+    <t>KLF16</t>
+  </si>
+  <si>
+    <t>Leiden Oxylipins</t>
   </si>
   <si>
     <t>InfiniumPsychArrayBeadChip</t>
   </si>
   <si>
-    <t>KDM4A</t>
-  </si>
-  <si>
-    <t>LC-SRM</t>
+    <t>KLF5</t>
+  </si>
+  <si>
+    <t>lentiMPRA</t>
   </si>
   <si>
     <t>Leco Pegasus IV</t>
   </si>
   <si>
-    <t>KLF16</t>
-  </si>
-  <si>
-    <t>Leiden Oxylipins</t>
+    <t>LaminB</t>
+  </si>
+  <si>
+    <t>LFP</t>
   </si>
   <si>
     <t>llumina Infinium General Screening Array 24-Kit v3.0</t>
   </si>
   <si>
-    <t>KLF5</t>
-  </si>
-  <si>
-    <t>lentiMPRA</t>
+    <t>MAZ</t>
+  </si>
+  <si>
+    <t>liquid chromatography-electrochemical detection</t>
   </si>
   <si>
     <t>LTQOrbitrapXL</t>
   </si>
   <si>
-    <t>LaminB</t>
-  </si>
-  <si>
-    <t>LFP</t>
+    <t>MEF2A</t>
+  </si>
+  <si>
+    <t>lncrnaSeq</t>
   </si>
   <si>
     <t>MiSeq</t>
   </si>
   <si>
-    <t>MAZ</t>
-  </si>
-  <si>
-    <t>liquid chromatography-electrochemical detection</t>
+    <t>MEIS2</t>
+  </si>
+  <si>
+    <t>locomotor activation behavior</t>
   </si>
   <si>
     <t>NanostringnCounter</t>
   </si>
   <si>
-    <t>MEF2A</t>
-  </si>
-  <si>
-    <t>lncrnaSeq</t>
+    <t>MITF</t>
+  </si>
+  <si>
+    <t>long-read rnaSeq</t>
   </si>
   <si>
     <t>NanostringnCounter_MouseADPanel</t>
   </si>
   <si>
-    <t>MEIS2</t>
-  </si>
-  <si>
-    <t>locomotor activation behavior</t>
+    <t>NCOA2</t>
+  </si>
+  <si>
+    <t>LTP</t>
   </si>
   <si>
     <t>NextSeq2000</t>
   </si>
   <si>
-    <t>MITF</t>
-  </si>
-  <si>
-    <t>long-read rnaSeq</t>
+    <t>NCOR1</t>
+  </si>
+  <si>
+    <t>m6A-rnaSeq</t>
   </si>
   <si>
     <t>NextSeq500</t>
   </si>
   <si>
-    <t>NCOA2</t>
-  </si>
-  <si>
-    <t>LTP</t>
+    <t>NEUROD1</t>
+  </si>
+  <si>
+    <t>MDMS-SL</t>
   </si>
   <si>
     <t>Olink Target 96</t>
   </si>
   <si>
-    <t>NCOR1</t>
-  </si>
-  <si>
-    <t>m6A-rnaSeq</t>
+    <t>NFIB</t>
+  </si>
+  <si>
+    <t>memory behavior</t>
   </si>
   <si>
     <t>orbitrap</t>
   </si>
   <si>
-    <t>NEUROD1</t>
-  </si>
-  <si>
-    <t>MDMS-SL</t>
+    <t>NFIC</t>
+  </si>
+  <si>
+    <t>Metabolon</t>
   </si>
   <si>
     <t>Orbitrap Exploris 240</t>
   </si>
   <si>
-    <t>NFIB</t>
-  </si>
-  <si>
-    <t>memory behavior</t>
+    <t>NONO</t>
+  </si>
+  <si>
+    <t>methylationArray</t>
   </si>
   <si>
     <t>OrbiTrap Fusion</t>
   </si>
   <si>
-    <t>NFIC</t>
-  </si>
-  <si>
-    <t>Metabolon</t>
+    <t>NR2F1</t>
+  </si>
+  <si>
+    <t>MIB/MS</t>
   </si>
   <si>
     <t>Orbitrap Fusion Lumos</t>
   </si>
   <si>
-    <t>NONO</t>
-  </si>
-  <si>
-    <t>methylationArray</t>
+    <t>NR2F2</t>
+  </si>
+  <si>
+    <t>microRNAcounts</t>
   </si>
   <si>
     <t>PacBio Sequel II</t>
   </si>
   <si>
-    <t>NR2F1</t>
-  </si>
-  <si>
-    <t>MIB/MS</t>
+    <t>NR3C1</t>
+  </si>
+  <si>
+    <t>mirnaArray</t>
   </si>
   <si>
     <t>PacBio Sequel IIe</t>
   </si>
   <si>
-    <t>NR2F2</t>
-  </si>
-  <si>
-    <t>microRNAcounts</t>
+    <t>NRF1</t>
+  </si>
+  <si>
+    <t>mirnaSeq</t>
   </si>
   <si>
     <t>PacBioRSII</t>
   </si>
   <si>
-    <t>NR3C1</t>
-  </si>
-  <si>
-    <t>mirnaArray</t>
+    <t>OLIG2</t>
+  </si>
+  <si>
+    <t>MRI</t>
   </si>
   <si>
     <t>Perlegen300Karray</t>
   </si>
   <si>
-    <t>NRF1</t>
-  </si>
-  <si>
-    <t>mirnaSeq</t>
+    <t>PKNOX1</t>
+  </si>
+  <si>
+    <t>mRNAcounts</t>
   </si>
   <si>
     <t>PsychChip</t>
   </si>
   <si>
-    <t>OLIG2</t>
-  </si>
-  <si>
-    <t>MRI</t>
+    <t>Pol2</t>
+  </si>
+  <si>
+    <t>mRNAseq</t>
   </si>
   <si>
     <t>Q Exactive</t>
   </si>
   <si>
-    <t>PKNOX1</t>
-  </si>
-  <si>
-    <t>mRNAcounts</t>
+    <t>R-loops</t>
+  </si>
+  <si>
+    <t>MudPIT</t>
   </si>
   <si>
     <t>Q Exactive HF</t>
   </si>
   <si>
-    <t>Pol2</t>
-  </si>
-  <si>
-    <t>mRNAseq</t>
+    <t>RAD21</t>
+  </si>
+  <si>
+    <t>nextGenerationTargetedSequencing</t>
   </si>
   <si>
     <t>Q Exactive HF-X</t>
   </si>
   <si>
-    <t>R-loops</t>
-  </si>
-  <si>
-    <t>MudPIT</t>
+    <t>RB1</t>
+  </si>
+  <si>
+    <t>Nightingale NMR</t>
   </si>
   <si>
     <t>Q Exactive Plus</t>
   </si>
   <si>
-    <t>RAD21</t>
-  </si>
-  <si>
-    <t>nextGenerationTargetedSequencing</t>
+    <t>RELB</t>
+  </si>
+  <si>
+    <t>NOMe-Seq</t>
   </si>
   <si>
     <t>quadrupole time-of-flight</t>
   </si>
   <si>
-    <t>RB1</t>
-  </si>
-  <si>
-    <t>Nightingale NMR</t>
+    <t>REST</t>
+  </si>
+  <si>
+    <t>novelty response behavior</t>
   </si>
   <si>
     <t>Roche Cobas</t>
   </si>
   <si>
-    <t>RELB</t>
-  </si>
-  <si>
-    <t>NOMe-Seq</t>
+    <t>SATB2</t>
+  </si>
+  <si>
+    <t>open field test</t>
   </si>
   <si>
     <t>SequenomMultiplex</t>
   </si>
   <si>
-    <t>REST</t>
-  </si>
-  <si>
-    <t>novelty response behavior</t>
+    <t>SIN3A</t>
+  </si>
+  <si>
+    <t>oxBS-Seq</t>
   </si>
   <si>
     <t>Signa Premier AIR 3T</t>
   </si>
   <si>
-    <t>SATB2</t>
-  </si>
-  <si>
-    <t>open field test</t>
+    <t>SIN3B</t>
+  </si>
+  <si>
+    <t>pharmacodynamics</t>
   </si>
   <si>
     <t>Simoa HD-1 Analyzer</t>
   </si>
   <si>
-    <t>SIN3A</t>
-  </si>
-  <si>
-    <t>oxBS-Seq</t>
+    <t>SIRT1</t>
+  </si>
+  <si>
+    <t>pharmacokinetics</t>
   </si>
   <si>
     <t>time-of-flight</t>
   </si>
   <si>
-    <t>SIN3B</t>
-  </si>
-  <si>
-    <t>pharmacodynamics</t>
+    <t>SIX4</t>
+  </si>
+  <si>
+    <t>photograph</t>
   </si>
   <si>
     <t>triple quadrupole</t>
   </si>
   <si>
-    <t>SIRT1</t>
-  </si>
-  <si>
-    <t>pharmacokinetics</t>
+    <t>SKIL</t>
+  </si>
+  <si>
+    <t>polymeraseChainReaction</t>
   </si>
   <si>
     <t>Xevo G2 QTOF</t>
   </si>
   <si>
-    <t>SIX4</t>
-  </si>
-  <si>
-    <t>photograph</t>
+    <t>SMARCA5</t>
+  </si>
+  <si>
+    <t>Positron Emission Tomography</t>
   </si>
   <si>
     <t>Xevo TQ-S</t>
-  </si>
-  <si>
-    <t>SKIL</t>
-  </si>
-  <si>
-    <t>polymeraseChainReaction</t>
-  </si>
-  <si>
-    <t>SMARCA5</t>
-  </si>
-  <si>
-    <t>Positron Emission Tomography</t>
   </si>
   <si>
     <t>SMC3</t>
@@ -28475,11 +28481,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="K2:K1000">
       <formula1>Sheet2!$K$2:$K$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="D2:D1000">
-      <formula1>Sheet2!$D$2:$D$81</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="C2:C1000">
       <formula1>Sheet2!$C$2:$C$123</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="D2:D1000">
+      <formula1>Sheet2!$D$2:$D$83</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="I2:I1000">
       <formula1>Sheet2!$I$2:$I$21</formula1>
@@ -29491,200 +29497,206 @@
       <c r="C82" s="7" t="s">
         <v>274</v>
       </c>
+      <c r="D82" s="7" t="s">
+        <v>275</v>
+      </c>
       <c r="L82" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="83">
       <c r="C83" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>278</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="84">
       <c r="C84" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="85">
       <c r="C85" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="86">
       <c r="C86" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="87">
       <c r="C87" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L87" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="88">
       <c r="C88" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L88" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="89">
       <c r="C89" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L89" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="90">
       <c r="C90" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L90" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="91">
       <c r="C91" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L91" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="92">
       <c r="C92" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L92" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="93">
       <c r="C93" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L93" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="94">
       <c r="C94" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L94" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="95">
       <c r="C95" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L95" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="96">
       <c r="C96" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L96" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="97">
       <c r="C97" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L97" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="98">
       <c r="C98" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L98" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="99">
       <c r="C99" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L99" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="100">
       <c r="C100" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L100" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="101">
       <c r="C101" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L101" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="102">
       <c r="C102" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L102" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="103">
       <c r="C103" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L103" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="104">
       <c r="C104" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L104" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="105">
       <c r="C105" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L105" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="106">
       <c r="C106" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L106" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="107">
@@ -29692,102 +29704,102 @@
         <v>84</v>
       </c>
       <c r="L107" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="108">
       <c r="C108" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L108" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="109">
       <c r="C109" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L109" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="110">
       <c r="C110" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L110" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="111">
       <c r="C111" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L111" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="112">
       <c r="C112" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L112" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="113">
       <c r="C113" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="114">
       <c r="C114" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="115">
       <c r="C115" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="116">
       <c r="C116" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="117">
       <c r="C117" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="118">
       <c r="C118" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="119">
       <c r="C119" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="120">
       <c r="C120" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="121">
       <c r="C121" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="122">
       <c r="C122" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="123">
       <c r="C123" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>

--- a/current-excel-manifests/Assay16SrRNAseqMetadataTemplate.xlsx
+++ b/current-excel-manifests/Assay16SrRNAseqMetadataTemplate.xlsx
@@ -3,8 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="hidden" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet state="hidden" name="Sheet2" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -1227,6 +1227,10 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
